--- a/P2/Reports/Results.xlsx
+++ b/P2/Reports/Results.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PYTHON\AIND\P2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PYTHON\AIND\P2\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="2" r:id="rId1"/>
+    <sheet name="Full results" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Random</t>
   </si>
@@ -54,13 +55,28 @@
   </si>
   <si>
     <t>AB_Custom_3</t>
+  </si>
+  <si>
+    <t>AB_Custom_b</t>
+  </si>
+  <si>
+    <t>AB_Custom_2b</t>
+  </si>
+  <si>
+    <t>AB_Custom_2c</t>
+  </si>
+  <si>
+    <t>AB_Custom_3b</t>
+  </si>
+  <si>
+    <t>Final selection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,13 +84,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,15 +129,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,12 +423,14 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A9" sqref="A9:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -398,125 +448,518 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>860</v>
+        <v>177</v>
       </c>
       <c r="C2">
-        <v>864</v>
+        <v>179</v>
       </c>
       <c r="D2">
-        <v>885</v>
+        <v>172</v>
       </c>
       <c r="E2">
-        <v>866</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>508</v>
+        <v>146</v>
       </c>
       <c r="C3">
-        <v>515</v>
+        <v>167</v>
       </c>
       <c r="D3">
-        <v>538</v>
+        <v>158</v>
       </c>
       <c r="E3">
-        <v>519</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>708</v>
+        <v>167</v>
       </c>
       <c r="C4">
-        <v>691</v>
+        <v>168</v>
       </c>
       <c r="D4">
-        <v>687</v>
+        <v>175</v>
       </c>
       <c r="E4">
-        <v>705</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>497</v>
+        <v>143</v>
       </c>
       <c r="C5">
-        <v>553</v>
+        <v>145</v>
       </c>
       <c r="D5">
-        <v>524</v>
+        <v>133</v>
       </c>
       <c r="E5">
-        <v>511</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>511</v>
+        <v>118</v>
       </c>
       <c r="C6">
-        <v>521</v>
+        <v>120</v>
       </c>
       <c r="D6">
-        <v>522</v>
+        <v>117</v>
       </c>
       <c r="E6">
-        <v>498</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>710</v>
+        <v>108</v>
       </c>
       <c r="C7">
-        <v>708</v>
+        <v>112</v>
       </c>
       <c r="D7">
-        <v>699</v>
+        <v>123</v>
       </c>
       <c r="E7">
-        <v>669</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>504</v>
+        <v>113</v>
       </c>
       <c r="C8">
-        <v>520</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>503</v>
+        <v>103</v>
       </c>
       <c r="E8">
-        <v>466</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>177</v>
+      </c>
+      <c r="C2">
+        <v>178</v>
+      </c>
+      <c r="D2">
+        <v>173</v>
+      </c>
+      <c r="E2">
+        <v>180</v>
+      </c>
+      <c r="F2">
+        <v>172</v>
+      </c>
+      <c r="G2">
+        <v>178</v>
+      </c>
+      <c r="H2">
+        <v>180</v>
+      </c>
+      <c r="I2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>146</v>
+      </c>
+      <c r="C3">
+        <v>136</v>
+      </c>
+      <c r="D3">
+        <v>158</v>
+      </c>
+      <c r="E3">
+        <v>143</v>
+      </c>
+      <c r="F3">
+        <v>158</v>
+      </c>
+      <c r="G3">
+        <v>151</v>
+      </c>
+      <c r="H3">
+        <v>147</v>
+      </c>
+      <c r="I3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>167</v>
+      </c>
+      <c r="C4">
+        <v>172</v>
+      </c>
+      <c r="D4">
+        <v>167</v>
+      </c>
+      <c r="E4">
+        <v>163</v>
+      </c>
+      <c r="F4">
+        <v>175</v>
+      </c>
+      <c r="G4">
+        <v>174</v>
+      </c>
+      <c r="H4">
+        <v>172</v>
+      </c>
+      <c r="I4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>143</v>
+      </c>
+      <c r="C5">
+        <v>139</v>
+      </c>
+      <c r="D5">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>136</v>
+      </c>
+      <c r="F5">
+        <v>133</v>
+      </c>
+      <c r="G5">
+        <v>148</v>
+      </c>
+      <c r="H5">
+        <v>144</v>
+      </c>
+      <c r="I5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>118</v>
+      </c>
+      <c r="C6">
+        <v>106</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>112</v>
+      </c>
+      <c r="F6">
+        <v>117</v>
+      </c>
+      <c r="G6">
+        <v>109</v>
+      </c>
+      <c r="H6">
+        <v>111</v>
+      </c>
+      <c r="I6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>108</v>
+      </c>
+      <c r="C7">
+        <v>108</v>
+      </c>
+      <c r="D7">
+        <v>97</v>
+      </c>
+      <c r="E7">
+        <v>126</v>
+      </c>
+      <c r="F7">
+        <v>123</v>
+      </c>
+      <c r="G7">
+        <v>114</v>
+      </c>
+      <c r="H7">
+        <v>108</v>
+      </c>
+      <c r="I7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>113</v>
+      </c>
+      <c r="C8">
+        <v>95</v>
+      </c>
+      <c r="D8">
+        <v>84</v>
+      </c>
+      <c r="E8">
+        <v>91</v>
+      </c>
+      <c r="F8">
+        <v>103</v>
+      </c>
+      <c r="G8">
+        <v>91</v>
+      </c>
+      <c r="H8">
+        <v>101</v>
+      </c>
+      <c r="I8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f>AVERAGE(B2:B8)/200</f>
+        <v>0.69428571428571428</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:I9" si="0">AVERAGE(C2:C8)/200</f>
+        <v>0.66714285714285704</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.64714285714285713</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.67928571428571427</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.70071428571428573</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.68928571428571428</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.68785714285714294</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.70428571428571429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B9:I9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:I2">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:I3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:I4">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:I5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:I6">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:I7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:I8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>